--- a/BackTest/2020-01-23 BackTest BCH.xlsx
+++ b/BackTest/2020-01-23 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1639,10 +1639,14 @@
         <v>-647.6576559899999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>386900</v>
+      </c>
+      <c r="J38" t="n">
+        <v>386900</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1675,8 +1679,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>386900</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>386900</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2018,17 @@
         <v>-602.3575559899999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>386500</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2057,17 @@
         <v>-596.6013559899999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>386300</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2096,17 @@
         <v>-588.6948559899998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>387000</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2135,17 @@
         <v>-607.9526559899998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>387200</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2174,17 @@
         <v>-609.9526559899998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>386800</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2213,17 @@
         <v>-609.1356559899998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>386300</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2252,17 @@
         <v>-611.7334559899998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>386900</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2291,17 @@
         <v>-614.5004559899999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>386500</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2330,17 @@
         <v>-613.9832559899999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>385900</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2369,17 @@
         <v>-606.3032559899999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>386100</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2408,17 @@
         <v>-604.4956559899999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>386200</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2447,17 @@
         <v>-584.9582559899999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>387100</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2490,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2527,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2564,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2601,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2638,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2675,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2712,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2749,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2786,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2823,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2860,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2897,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2934,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2971,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3008,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3045,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3082,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3119,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3156,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3193,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3226,17 @@
         <v>-579.3406918199998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>387300</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3265,17 @@
         <v>-550.0077918199999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>387000</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3304,17 @@
         <v>-550.0077918199999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>388000</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3343,17 @@
         <v>-551.0971918199998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>388000</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3382,17 @@
         <v>-549.0971918199998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>387600</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3425,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3462,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3499,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3536,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3573,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3610,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3643,17 @@
         <v>-544.6437918199998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>387700</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3686,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3723,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3756,17 @@
         <v>-545.9825918199997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>387000</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3799,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3836,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3869,17 @@
         <v>-530.5834918199996</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>387700</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3908,17 @@
         <v>-531.7036918199996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>387700</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3947,17 @@
         <v>-536.7673918199996</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>387400</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3986,17 @@
         <v>-536.7673918199996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>387200</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4025,17 @@
         <v>-541.0581918199996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>387200</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4064,17 @@
         <v>-547.1106918199996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>387000</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4103,17 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>386400</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4142,17 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>386900</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4181,17 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>386900</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4220,17 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>386900</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4259,17 @@
         <v>-540.7000918199996</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>386900</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4298,17 @@
         <v>-543.9611918199996</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>386700</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4337,17 @@
         <v>-547.3138918199996</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>386100</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,7 +4376,7 @@
         <v>-523.7659918199996</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>385700</v>
@@ -4056,7 +4384,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4087,7 +4415,7 @@
         <v>-526.6700918199996</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>386000</v>
@@ -4126,7 +4454,7 @@
         <v>-517.5432918199996</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>385500</v>
@@ -4165,7 +4493,7 @@
         <v>-520.7379918199996</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>385600</v>
@@ -4204,7 +4532,7 @@
         <v>-530.7379918199996</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>385500</v>
@@ -4243,7 +4571,7 @@
         <v>-530.7379918199996</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>385100</v>
@@ -4282,7 +4610,7 @@
         <v>-527.7379918199996</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>385100</v>
@@ -4321,7 +4649,7 @@
         <v>-520.1568918199996</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>385500</v>
@@ -4360,7 +4688,7 @@
         <v>-519.8209918199996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>385700</v>
@@ -4399,7 +4727,7 @@
         <v>-508.9321918199996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>386300</v>
@@ -4438,7 +4766,7 @@
         <v>-508.5321918199996</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>387400</v>
@@ -4477,7 +4805,7 @@
         <v>-503.0171918199996</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>387500</v>
@@ -4516,7 +4844,7 @@
         <v>-510.7414918199996</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>387600</v>
@@ -4555,9 +4883,11 @@
         <v>-532.6985918199996</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>387500</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4592,7 +4922,7 @@
         <v>-507.1935918199996</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>386500</v>
@@ -4631,7 +4961,7 @@
         <v>-543.1645918199996</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>386800</v>
@@ -4670,7 +5000,7 @@
         <v>-539.9798918199996</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>385900</v>
@@ -4709,7 +5039,7 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>386100</v>
@@ -4748,7 +5078,7 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>386500</v>
@@ -4787,7 +5117,7 @@
         <v>-533.1711918199995</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>386500</v>
@@ -4826,7 +5156,7 @@
         <v>-508.2896918199995</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>387600</v>
@@ -4865,7 +5195,7 @@
         <v>-489.3660918199995</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>387700</v>
@@ -4904,7 +5234,7 @@
         <v>-470.2089918199995</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>387900</v>
@@ -4943,9 +5273,11 @@
         <v>-480.2889918199995</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>388000</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -4980,9 +5312,11 @@
         <v>-480.2018918199994</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>387000</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5017,9 +5351,11 @@
         <v>-485.3839918199994</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>387400</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5054,9 +5390,11 @@
         <v>-487.8722918199994</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>387200</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5091,9 +5429,11 @@
         <v>-487.8722918199994</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>386500</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5128,7 +5468,7 @@
         <v>-471.1719918199994</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>386500</v>
@@ -5167,7 +5507,7 @@
         <v>-458.5221918199994</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>386600</v>
@@ -5206,7 +5546,7 @@
         <v>-456.8738918199994</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>386800</v>
@@ -5245,7 +5585,7 @@
         <v>-465.9595918199994</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>387200</v>
@@ -5284,7 +5624,7 @@
         <v>-459.5261918199994</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>386500</v>
@@ -5323,7 +5663,7 @@
         <v>-462.1202918199994</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>387000</v>
@@ -5362,7 +5702,7 @@
         <v>-462.0348918199994</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>386800</v>
@@ -5401,7 +5741,7 @@
         <v>-462.0348918199994</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>386900</v>
@@ -5440,7 +5780,7 @@
         <v>-460.9940918199994</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>386900</v>
@@ -5479,7 +5819,7 @@
         <v>-461.6181918199994</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>387000</v>
@@ -5518,7 +5858,7 @@
         <v>-462.8235918199994</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>386900</v>
@@ -5557,9 +5897,11 @@
         <v>-463.8770918199994</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>386500</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5594,7 +5936,7 @@
         <v>-465.5502918199994</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>386300</v>
@@ -5633,7 +5975,7 @@
         <v>-543.8064918199995</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>385500</v>
@@ -5672,7 +6014,7 @@
         <v>-206.7779918199994</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>384200</v>
@@ -5711,11 +6053,9 @@
         <v>-338.3166918199994</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>385800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5787,9 +6127,11 @@
         <v>-265.1344918199995</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>386000</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5824,9 +6166,11 @@
         <v>-321.0166918199995</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>386100</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5861,9 +6205,11 @@
         <v>-332.0895918199995</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>384500</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5898,9 +6244,11 @@
         <v>-323.0095918199995</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>384300</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5935,9 +6283,11 @@
         <v>-298.1668918199995</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>385200</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -5972,9 +6322,11 @@
         <v>-297.3215918199995</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>385500</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6009,7 +6361,7 @@
         <v>-323.4288918199995</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>386000</v>
@@ -6048,7 +6400,7 @@
         <v>-221.9179918199995</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>385000</v>
@@ -6087,7 +6439,7 @@
         <v>-233.9496918199995</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>385300</v>
@@ -6126,7 +6478,7 @@
         <v>-269.2813918199996</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>385100</v>
@@ -6165,7 +6517,7 @@
         <v>-6.615791819999572</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>384800</v>
@@ -6204,7 +6556,7 @@
         <v>-25.09979181999957</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>386400</v>
@@ -6243,7 +6595,7 @@
         <v>-25.09979181999957</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>384600</v>
@@ -6282,7 +6634,7 @@
         <v>-22.89859181999957</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>384600</v>
@@ -6321,9 +6673,11 @@
         <v>-22.89859181999957</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>385000</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6358,9 +6712,11 @@
         <v>-21.19929181999957</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>385000</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6395,9 +6751,11 @@
         <v>-11.46069181999957</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>385500</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6432,9 +6790,11 @@
         <v>-51.04389181999957</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>387600</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6469,9 +6829,11 @@
         <v>13.59610818000043</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>387200</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6506,9 +6868,11 @@
         <v>115.8948081800004</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>388600</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6543,9 +6907,11 @@
         <v>142.3827081800004</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>388800</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -11575,16 +11941,18 @@
         <v>1225.882881040001</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L312" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
       <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
@@ -11610,11 +11978,15 @@
         <v>1258.934781040001</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11643,11 +12015,15 @@
         <v>1258.934781040001</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11676,11 +12052,15 @@
         <v>1237.126781040001</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11709,11 +12089,15 @@
         <v>1237.126781040001</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11742,11 +12126,15 @@
         <v>1291.347381040001</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11775,11 +12163,15 @@
         <v>1275.347381040001</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11808,11 +12200,15 @@
         <v>1281.369845990001</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11841,11 +12237,15 @@
         <v>1281.369845990001</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11874,11 +12274,15 @@
         <v>1226.692445990001</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11907,11 +12311,15 @@
         <v>1226.692445990001</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11940,11 +12348,15 @@
         <v>1156.159345990001</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11973,11 +12385,15 @@
         <v>1154.249245990001</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12006,11 +12422,15 @@
         <v>1157.649245990001</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +12463,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12076,7 +12500,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12109,7 +12537,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12142,7 +12574,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12175,7 +12611,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12208,7 +12648,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12241,7 +12685,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12274,7 +12722,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12307,7 +12759,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12340,7 +12796,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12373,7 +12833,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12406,7 +12870,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12439,7 +12907,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12472,7 +12944,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12505,7 +12981,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12538,7 +13018,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12571,7 +13055,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12604,7 +13092,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12637,7 +13129,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12670,7 +13166,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12703,7 +13203,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12736,7 +13240,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12769,7 +13277,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12802,7 +13314,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12835,7 +13351,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12868,7 +13388,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12901,7 +13425,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12934,7 +13462,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +13499,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13000,7 +13536,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13033,7 +13573,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13066,7 +13610,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13099,7 +13647,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +13684,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13165,7 +13721,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13198,7 +13758,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13231,7 +13795,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13264,7 +13832,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13297,7 +13869,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13330,7 +13906,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13363,7 +13943,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13396,7 +13980,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13429,7 +14017,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13462,7 +14054,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13495,7 +14091,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13528,7 +14128,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13561,7 +14165,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13594,7 +14202,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13627,7 +14239,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13660,7 +14276,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13693,7 +14313,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13726,7 +14350,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13759,7 +14387,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13792,7 +14424,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13825,7 +14461,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13858,7 +14498,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13891,7 +14535,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13924,7 +14572,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13957,7 +14609,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13990,7 +14646,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14023,7 +14683,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14056,7 +14720,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14089,7 +14757,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14122,7 +14794,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14155,7 +14831,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14188,7 +14868,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14221,7 +14905,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14254,7 +14942,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14287,7 +14979,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14320,7 +15016,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14353,7 +15053,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14386,7 +15090,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14419,7 +15127,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14452,7 +15164,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14485,7 +15201,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14518,7 +15238,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14551,7 +15275,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14584,7 +15312,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14617,7 +15349,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14650,7 +15386,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14683,7 +15423,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14716,7 +15460,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14749,7 +15497,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14782,7 +15534,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14815,7 +15571,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14848,7 +15608,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14881,7 +15645,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14914,7 +15682,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14947,7 +15719,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14980,7 +15756,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15013,7 +15793,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15046,7 +15830,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15079,7 +15867,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15112,7 +15904,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15145,7 +15941,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15178,7 +15978,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15211,7 +16015,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15244,7 +16052,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15277,7 +16089,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15310,7 +16126,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15343,7 +16163,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15376,7 +16200,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15409,7 +16237,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15442,7 +16274,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15475,7 +16311,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15508,7 +16348,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15541,7 +16385,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15574,7 +16422,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15607,7 +16459,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15640,7 +16496,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15673,7 +16533,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15706,7 +16570,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15739,7 +16607,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15772,7 +16644,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15805,7 +16681,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15838,7 +16718,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15871,7 +16755,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15904,7 +16792,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15937,7 +16829,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15970,7 +16866,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16003,7 +16903,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16036,7 +16940,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16069,7 +16977,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16102,7 +17014,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16135,7 +17051,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16168,7 +17088,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16201,7 +17125,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16234,7 +17162,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16267,7 +17199,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16300,7 +17236,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16333,7 +17273,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16366,7 +17310,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16399,7 +17347,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16432,7 +17384,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16465,7 +17421,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16498,7 +17458,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16531,7 +17495,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16564,7 +17532,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16597,7 +17569,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16630,7 +17606,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16663,7 +17643,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16696,7 +17680,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16729,7 +17717,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16762,7 +17754,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16795,7 +17791,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16828,7 +17828,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16861,7 +17865,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16894,7 +17902,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16927,7 +17939,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16960,7 +17976,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16993,7 +18013,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17026,7 +18050,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17059,7 +18087,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17092,7 +18124,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17125,7 +18161,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17158,7 +18198,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17191,7 +18235,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17224,7 +18272,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17257,7 +18309,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17290,7 +18346,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17323,7 +18383,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17356,7 +18420,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17389,7 +18457,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17422,7 +18494,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17455,7 +18531,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17488,7 +18568,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17521,7 +18605,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17554,7 +18642,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17587,7 +18679,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17620,7 +18716,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17653,7 +18753,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17686,7 +18790,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17719,7 +18827,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17752,7 +18864,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17785,7 +18901,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +18938,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17851,7 +18975,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17884,7 +19012,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17917,7 +19049,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17950,7 +19086,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17983,7 +19123,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18016,7 +19160,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18049,7 +19197,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18082,7 +19234,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18115,7 +19271,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18148,7 +19308,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18181,7 +19345,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18214,7 +19382,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18247,7 +19419,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18280,7 +19456,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18313,7 +19493,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18346,7 +19530,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18379,7 +19567,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18412,7 +19604,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18445,7 +19641,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18478,7 +19678,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18511,7 +19715,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18544,7 +19752,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18577,7 +19789,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18610,7 +19826,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18643,7 +19863,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18676,7 +19900,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18709,7 +19937,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18742,7 +19974,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18775,7 +20011,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18808,7 +20048,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18841,7 +20085,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18874,7 +20122,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18907,7 +20159,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18940,7 +20196,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +20233,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19006,7 +20270,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19039,7 +20307,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19072,7 +20344,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19105,7 +20381,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19138,7 +20418,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19171,7 +20455,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19204,7 +20492,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19237,7 +20529,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19270,7 +20566,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19303,7 +20603,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19336,7 +20640,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19369,7 +20677,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19402,7 +20714,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19435,7 +20751,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19468,7 +20788,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19501,7 +20825,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19534,7 +20862,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19567,7 +20899,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19600,7 +20936,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19633,7 +20973,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19666,7 +21010,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19699,7 +21047,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19732,7 +21084,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19765,7 +21121,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19798,7 +21158,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19831,7 +21195,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19864,7 +21232,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19897,7 +21269,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19930,7 +21306,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19963,7 +21343,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19996,7 +21380,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20029,7 +21417,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20062,7 +21454,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20095,7 +21491,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20128,7 +21528,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20161,7 +21565,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20194,7 +21602,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20227,7 +21639,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20260,7 +21676,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20293,7 +21713,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20326,7 +21750,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20359,7 +21787,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20388,11 +21820,15 @@
         <v>1212.858702650001</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20425,7 +21861,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20458,7 +21898,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20491,7 +21935,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20524,7 +21972,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20557,7 +22009,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20590,7 +22046,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20623,7 +22083,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20656,7 +22120,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20689,7 +22157,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20722,7 +22194,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20755,7 +22231,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20788,7 +22268,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20821,7 +22305,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20854,7 +22342,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20887,7 +22379,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20920,7 +22416,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20953,7 +22453,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20986,7 +22490,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21019,7 +22527,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21052,7 +22564,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21085,7 +22601,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21118,7 +22638,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21151,7 +22675,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21184,7 +22712,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21217,7 +22749,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21250,7 +22786,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21283,7 +22823,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21316,7 +22860,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21349,7 +22897,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21382,7 +22934,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21415,7 +22971,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21448,7 +23008,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21481,7 +23045,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21514,7 +23082,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21547,7 +23119,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21580,7 +23156,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21613,7 +23193,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21646,7 +23230,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21679,7 +23267,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21712,7 +23304,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21745,7 +23341,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21778,7 +23378,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21811,7 +23415,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21844,7 +23452,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21877,7 +23489,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21910,7 +23526,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21943,7 +23563,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21976,7 +23600,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22009,7 +23637,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22042,7 +23674,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22075,7 +23711,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22108,7 +23748,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22141,7 +23785,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22174,7 +23822,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22207,7 +23859,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22240,7 +23896,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22273,7 +23933,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22306,7 +23970,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22339,7 +24007,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22372,7 +24044,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22405,7 +24081,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22438,7 +24118,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22471,7 +24155,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22504,7 +24192,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22537,7 +24229,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22570,7 +24266,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22603,7 +24303,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22636,7 +24340,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22669,7 +24377,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22702,7 +24414,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22735,7 +24451,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22768,7 +24488,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22797,11 +24521,15 @@
         <v>1141.376286900001</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22830,11 +24558,15 @@
         <v>1178.061586900001</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22863,11 +24595,15 @@
         <v>1178.061586900001</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22896,11 +24632,15 @@
         <v>1170.221586900001</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22929,11 +24669,15 @@
         <v>1182.612586900001</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22966,7 +24710,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22999,7 +24747,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23032,7 +24784,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23065,7 +24821,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23098,7 +24858,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23127,11 +24891,15 @@
         <v>1743.409840810001</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23160,11 +24928,15 @@
         <v>1733.206240810001</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23193,11 +24965,15 @@
         <v>1848.552740810001</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23226,11 +25002,15 @@
         <v>1868.552740810001</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23259,11 +25039,15 @@
         <v>1949.295140810001</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23292,11 +25076,15 @@
         <v>2109.851878450002</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23325,11 +25113,15 @@
         <v>1991.509678450002</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23358,11 +25150,15 @@
         <v>2513.212878450001</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23391,11 +25187,15 @@
         <v>2414.156878450001</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23424,11 +25224,15 @@
         <v>2467.547878450001</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23457,11 +25261,15 @@
         <v>2494.870778450002</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23490,11 +25298,15 @@
         <v>2483.623578450002</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23523,11 +25335,15 @@
         <v>2569.973378450002</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23556,11 +25372,15 @@
         <v>2634.634078450002</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23589,11 +25409,15 @@
         <v>2628.121478450002</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23622,11 +25446,15 @@
         <v>2617.640078450002</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23655,11 +25483,15 @@
         <v>2607.585878450001</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23692,7 +25524,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23725,7 +25561,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23758,7 +25598,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23791,7 +25635,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23820,11 +25668,15 @@
         <v>2687.631978450001</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23853,11 +25705,15 @@
         <v>3007.031142450001</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23886,11 +25742,15 @@
         <v>3181.703377450001</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23919,11 +25779,15 @@
         <v>3299.347704690002</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23952,11 +25816,15 @@
         <v>3254.817134580001</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23985,11 +25853,15 @@
         <v>3297.156411730001</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24018,11 +25890,15 @@
         <v>3279.103811730001</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24051,11 +25927,15 @@
         <v>3244.034530100001</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24084,11 +25964,15 @@
         <v>3287.331230100001</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24121,7 +26005,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24154,7 +26042,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24187,7 +26079,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24220,7 +26116,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24253,7 +26153,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24286,7 +26190,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24319,7 +26227,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24352,7 +26264,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24385,7 +26301,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24418,7 +26338,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24451,7 +26375,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24484,7 +26412,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24513,14 +26445,16 @@
         <v>3341.492481150002</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="inlineStr"/>
     </row>
     <row r="705">
@@ -24612,7 +26546,7 @@
         <v>3112.448581150002</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24645,7 +26579,7 @@
         <v>3133.123181150002</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24678,7 +26612,7 @@
         <v>3043.545981150001</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24711,7 +26645,7 @@
         <v>3037.992381150001</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24744,7 +26678,7 @@
         <v>3037.992381150001</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24777,7 +26711,7 @@
         <v>3035.444381150001</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24810,7 +26744,7 @@
         <v>3048.107381150001</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24843,7 +26777,7 @@
         <v>3049.132381150001</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24876,7 +26810,7 @@
         <v>3106.644381150002</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24909,7 +26843,7 @@
         <v>3077.412881150002</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24942,7 +26876,7 @@
         <v>3193.353781150002</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24975,7 +26909,7 @@
         <v>3193.353781150002</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25008,7 +26942,7 @@
         <v>3112.528581150002</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25041,7 +26975,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25074,7 +27008,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25173,7 +27107,7 @@
         <v>3086.105481150002</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25206,7 +27140,7 @@
         <v>3091.495774920002</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25239,7 +27173,7 @@
         <v>3091.495774920002</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25272,7 +27206,7 @@
         <v>3161.805074920002</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25503,7 +27437,7 @@
         <v>3124.433874920001</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25602,7 +27536,7 @@
         <v>3060.909103420001</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25635,7 +27569,7 @@
         <v>3090.060703420002</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25668,7 +27602,7 @@
         <v>3096.339352100002</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25701,7 +27635,7 @@
         <v>3054.436152100001</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25734,7 +27668,7 @@
         <v>3002.594791540002</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25767,7 +27701,7 @@
         <v>3127.217591540002</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25800,7 +27734,7 @@
         <v>3127.200791540002</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25833,7 +27767,7 @@
         <v>3127.057591540002</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25866,7 +27800,7 @@
         <v>3164.104191540002</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25899,7 +27833,7 @@
         <v>3224.355191540002</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25932,7 +27866,7 @@
         <v>3218.776891540002</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25965,7 +27899,7 @@
         <v>3191.708391540002</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25998,7 +27932,7 @@
         <v>3191.708391540002</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26031,7 +27965,7 @@
         <v>3197.793291540002</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26064,7 +27998,7 @@
         <v>3224.929777910002</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26097,7 +28031,7 @@
         <v>3224.929777910002</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26130,7 +28064,7 @@
         <v>3224.929777910002</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26163,7 +28097,7 @@
         <v>3168.633577910002</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26625,7 +28559,7 @@
         <v>2939.049891740002</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26658,7 +28592,7 @@
         <v>2939.049891740002</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26691,7 +28625,7 @@
         <v>2941.120591740003</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26724,7 +28658,7 @@
         <v>2938.993391740003</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26790,7 +28724,7 @@
         <v>2917.414991740003</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26856,7 +28790,7 @@
         <v>2890.062465110002</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28374,7 +30308,7 @@
         <v>3067.102916890004</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28407,7 +30341,7 @@
         <v>3070.622616890003</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28440,7 +30374,7 @@
         <v>3069.871316890004</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28473,7 +30407,7 @@
         <v>3068.641216890003</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28506,7 +30440,7 @@
         <v>3069.641216890003</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28539,7 +30473,7 @@
         <v>3069.641216890003</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28572,7 +30506,7 @@
         <v>3056.036516890003</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28737,7 +30671,7 @@
         <v>3056.120680840004</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28770,7 +30704,7 @@
         <v>3061.699680840004</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28803,7 +30737,7 @@
         <v>3061.699680840004</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28836,7 +30770,7 @@
         <v>3072.941980840004</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28869,7 +30803,7 @@
         <v>3014.141180840004</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28902,7 +30836,7 @@
         <v>3020.466580840004</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28935,7 +30869,7 @@
         <v>3003.256736530004</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28968,7 +30902,7 @@
         <v>3002.256736530004</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29001,7 +30935,7 @@
         <v>2996.886136530004</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29034,7 +30968,7 @@
         <v>2996.886136530004</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29067,7 +31001,7 @@
         <v>2995.965936530004</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29100,7 +31034,7 @@
         <v>2995.935436530004</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29133,7 +31067,7 @@
         <v>2996.004136530004</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29166,7 +31100,7 @@
         <v>2989.892036530004</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29199,7 +31133,7 @@
         <v>2982.620036530004</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29232,7 +31166,7 @@
         <v>2939.563236530004</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29265,7 +31199,7 @@
         <v>2939.563236530004</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29298,7 +31232,7 @@
         <v>2911.539036530005</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29331,7 +31265,7 @@
         <v>2925.539036530005</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29364,7 +31298,7 @@
         <v>2925.529036530004</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29397,7 +31331,7 @@
         <v>2985.406436530004</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29529,7 +31463,7 @@
         <v>3031.322636130004</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29562,7 +31496,7 @@
         <v>3019.172236130004</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29595,7 +31529,7 @@
         <v>3019.172236130004</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29628,7 +31562,7 @@
         <v>3016.815036130004</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29661,7 +31595,7 @@
         <v>2990.315736130004</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29694,7 +31628,7 @@
         <v>2990.315736130004</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29727,7 +31661,7 @@
         <v>2990.315736130004</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30024,7 +31958,7 @@
         <v>3037.016937130004</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30057,7 +31991,7 @@
         <v>3040.469637130004</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30090,7 +32024,7 @@
         <v>3040.459637130004</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30123,7 +32057,7 @@
         <v>3050.683772300004</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30189,7 +32123,7 @@
         <v>3045.459872300004</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30222,7 +32156,7 @@
         <v>3041.404772300004</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30255,7 +32189,7 @@
         <v>3030.876472300004</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30288,7 +32222,7 @@
         <v>3025.062672300004</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30321,7 +32255,7 @@
         <v>3026.251172300004</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30354,7 +32288,7 @@
         <v>3026.251172300004</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30387,7 +32321,7 @@
         <v>3018.902872300004</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31047,7 +32981,7 @@
         <v>3070.640072300005</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31080,7 +33014,7 @@
         <v>3070.640072300005</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31344,7 +33278,7 @@
         <v>3385.835472300005</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31377,7 +33311,7 @@
         <v>3386.562472300005</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31410,7 +33344,7 @@
         <v>3354.467372300005</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31443,7 +33377,7 @@
         <v>3364.303872300005</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31476,7 +33410,7 @@
         <v>3358.988772300005</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31509,7 +33443,7 @@
         <v>3376.098972300005</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31542,7 +33476,7 @@
         <v>3374.745772300005</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31575,7 +33509,7 @@
         <v>3374.993772300005</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31608,7 +33542,7 @@
         <v>3374.993772300005</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31641,7 +33575,7 @@
         <v>3345.648372300005</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31674,7 +33608,7 @@
         <v>3243.882472300005</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31707,7 +33641,7 @@
         <v>3263.626372300005</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31740,7 +33674,7 @@
         <v>3283.736072300005</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31773,7 +33707,7 @@
         <v>3298.292872300005</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31806,7 +33740,7 @@
         <v>3285.906272300005</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31938,7 +33872,7 @@
         <v>3287.779972300004</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31971,7 +33905,7 @@
         <v>3286.777558690004</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32004,7 +33938,7 @@
         <v>3284.771958690004</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32037,7 +33971,7 @@
         <v>3284.771958690004</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32070,7 +34004,7 @@
         <v>3285.055558690005</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32103,7 +34037,7 @@
         <v>3283.900458690005</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32136,7 +34070,7 @@
         <v>3279.952658690005</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32169,7 +34103,7 @@
         <v>3278.696158690005</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32202,7 +34136,7 @@
         <v>3266.537458690005</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32235,7 +34169,7 @@
         <v>3281.080858690005</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32664,7 +34598,7 @@
         <v>3271.191458690005</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32697,7 +34631,7 @@
         <v>3271.191458690005</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32730,7 +34664,7 @@
         <v>3281.781558690005</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32763,7 +34697,7 @@
         <v>3281.781558690005</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32796,7 +34730,7 @@
         <v>3297.280558690004</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32829,7 +34763,7 @@
         <v>3297.280558690004</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32862,7 +34796,7 @@
         <v>3297.280558690004</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32895,7 +34829,7 @@
         <v>3297.298758690004</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32928,7 +34862,7 @@
         <v>3307.256758690005</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32961,7 +34895,7 @@
         <v>3314.856558690004</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32994,7 +34928,7 @@
         <v>3315.013758690005</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33027,7 +34961,7 @@
         <v>3322.895458690004</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33060,7 +34994,7 @@
         <v>3322.261858690004</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33093,7 +35027,7 @@
         <v>3304.118857690004</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33126,7 +35060,7 @@
         <v>3303.561757690004</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33159,7 +35093,7 @@
         <v>3303.550957690004</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33192,7 +35126,7 @@
         <v>3315.390957690005</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33225,7 +35159,7 @@
         <v>3159.664857690005</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33258,7 +35192,7 @@
         <v>3167.438257690005</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33291,7 +35225,7 @@
         <v>3272.229957690005</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33324,7 +35258,7 @@
         <v>3299.638057690005</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33357,7 +35291,7 @@
         <v>3308.768405890005</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33390,7 +35324,7 @@
         <v>3309.686905890005</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33423,7 +35357,7 @@
         <v>3309.686905890005</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33456,7 +35390,7 @@
         <v>3309.686905890005</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33489,7 +35423,7 @@
         <v>3328.927205890005</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33522,7 +35456,7 @@
         <v>3326.035905890005</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33555,7 +35489,7 @@
         <v>3325.220705890005</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33588,7 +35522,7 @@
         <v>3325.220705890005</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33621,7 +35555,7 @@
         <v>3333.117705890005</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33654,7 +35588,7 @@
         <v>3337.993905890005</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33687,7 +35621,7 @@
         <v>3350.425905890005</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33720,7 +35654,7 @@
         <v>3350.425905890005</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33753,7 +35687,7 @@
         <v>3336.948205890005</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33786,7 +35720,7 @@
         <v>3354.677905890005</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33819,7 +35753,7 @@
         <v>3336.841005890005</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33852,7 +35786,7 @@
         <v>3302.656505890006</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33885,7 +35819,7 @@
         <v>3303.216005890005</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33918,7 +35852,7 @@
         <v>3168.919805890006</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33951,7 +35885,7 @@
         <v>3186.515705890005</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33984,7 +35918,7 @@
         <v>3226.575105890005</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34017,7 +35951,7 @@
         <v>3225.776805890006</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34083,7 +36017,7 @@
         <v>3227.176105890006</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34116,7 +36050,7 @@
         <v>3227.176105890006</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34380,7 +36314,7 @@
         <v>3307.318105890006</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36074,6 +38008,6 @@
       <c r="M1054" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BCH.xlsx
+++ b/BackTest/2020-01-23 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,11 +1375,17 @@
         <v>-701.0651754999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>386900</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1414,17 @@
         <v>-674.4820754999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>386200</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1453,17 @@
         <v>-675.6790840199999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>387600</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1492,17 @@
         <v>-710.1953840199999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>387100</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1531,17 @@
         <v>-700.9438559899999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>386200</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1570,17 @@
         <v>-684.9829559899998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>386600</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1609,17 @@
         <v>-699.0675559899998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>386900</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1648,17 @@
         <v>-696.0675559899998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>386700</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1644,10 +1692,12 @@
       <c r="I38" t="n">
         <v>386900</v>
       </c>
-      <c r="J38" t="n">
-        <v>386900</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1679,12 +1729,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>386900</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1718,12 +1766,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>386900</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1758,7 +1804,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,7 +1841,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,7 +1878,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,7 +1915,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1890,7 +1952,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,7 +1989,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,7 +2026,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1989,7 +2063,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,15 +2096,13 @@
         <v>-602.3575559899999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2057,11 +2133,9 @@
         <v>-596.6013559899999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>386300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2096,11 +2170,9 @@
         <v>-588.6948559899998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2135,11 +2207,9 @@
         <v>-607.9526559899998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>387200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2174,11 +2244,9 @@
         <v>-609.9526559899998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>386800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2213,11 +2281,9 @@
         <v>-609.1356559899998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>386300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2252,11 +2318,9 @@
         <v>-611.7334559899998</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2291,11 +2355,9 @@
         <v>-614.5004559899999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2330,11 +2392,9 @@
         <v>-613.9832559899999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>385900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2369,11 +2429,9 @@
         <v>-606.3032559899999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>386100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2408,11 +2466,9 @@
         <v>-604.4956559899999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>386200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2447,11 +2503,9 @@
         <v>-584.9582559899999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>387100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3226,11 +3280,9 @@
         <v>-579.3406918199998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>387300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3265,11 +3317,9 @@
         <v>-550.0077918199999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3304,11 +3354,9 @@
         <v>-550.0077918199999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3343,11 +3391,9 @@
         <v>-551.0971918199998</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3382,11 +3428,9 @@
         <v>-549.0971918199998</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>387600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3643,11 +3687,9 @@
         <v>-544.6437918199998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3756,11 +3798,9 @@
         <v>-545.9825918199997</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3869,11 +3909,9 @@
         <v>-530.5834918199996</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3908,11 +3946,9 @@
         <v>-531.7036918199996</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3947,11 +3983,9 @@
         <v>-536.7673918199996</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>387400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3986,11 +4020,9 @@
         <v>-536.7673918199996</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>387200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4025,11 +4057,9 @@
         <v>-541.0581918199996</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>387200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4064,11 +4094,9 @@
         <v>-547.1106918199996</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4103,11 +4131,9 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>386400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4142,11 +4168,9 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4181,11 +4205,9 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4220,11 +4242,9 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4259,11 +4279,9 @@
         <v>-540.7000918199996</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4805,11 +4823,9 @@
         <v>-503.0171918199996</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>387500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4844,11 +4860,9 @@
         <v>-510.7414918199996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>387600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4883,11 +4897,9 @@
         <v>-532.6985918199996</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>387500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4922,11 +4934,9 @@
         <v>-507.1935918199996</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4961,11 +4971,9 @@
         <v>-543.1645918199996</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>386800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5000,11 +5008,9 @@
         <v>-539.9798918199996</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>385900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5039,11 +5045,9 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>386100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5078,11 +5082,9 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5117,11 +5119,9 @@
         <v>-533.1711918199995</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5156,11 +5156,9 @@
         <v>-508.2896918199995</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>387600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5195,11 +5193,9 @@
         <v>-489.3660918199995</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5234,11 +5230,9 @@
         <v>-470.2089918199995</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>387900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5273,11 +5267,9 @@
         <v>-480.2889918199995</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5312,11 +5304,9 @@
         <v>-480.2018918199994</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5351,11 +5341,9 @@
         <v>-485.3839918199994</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>387400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5390,11 +5378,9 @@
         <v>-487.8722918199994</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>387200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5429,11 +5415,9 @@
         <v>-487.8722918199994</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5468,11 +5452,9 @@
         <v>-471.1719918199994</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5507,11 +5489,9 @@
         <v>-458.5221918199994</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>386600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5546,11 +5526,9 @@
         <v>-456.8738918199994</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>386800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5585,11 +5563,9 @@
         <v>-465.9595918199994</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>387200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5624,11 +5600,9 @@
         <v>-459.5261918199994</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5663,11 +5637,9 @@
         <v>-462.1202918199994</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5702,11 +5674,9 @@
         <v>-462.0348918199994</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>386800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5741,11 +5711,9 @@
         <v>-462.0348918199994</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5780,11 +5748,9 @@
         <v>-460.9940918199994</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5819,11 +5785,9 @@
         <v>-461.6181918199994</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>387000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5858,11 +5822,9 @@
         <v>-462.8235918199994</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>386900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5897,11 +5859,9 @@
         <v>-463.8770918199994</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>386500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5936,11 +5896,9 @@
         <v>-465.5502918199994</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>386300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5975,11 +5933,9 @@
         <v>-543.8064918199995</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>385500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6014,11 +5970,9 @@
         <v>-206.7779918199994</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>384200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6127,11 +6081,9 @@
         <v>-265.1344918199995</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>386000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6166,11 +6118,9 @@
         <v>-321.0166918199995</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>386100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6205,11 +6155,9 @@
         <v>-332.0895918199995</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>384500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6244,11 +6192,9 @@
         <v>-323.0095918199995</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>384300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6283,11 +6229,9 @@
         <v>-298.1668918199995</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>385200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6322,11 +6266,9 @@
         <v>-297.3215918199995</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>385500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6361,11 +6303,9 @@
         <v>-323.4288918199995</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>386000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6400,11 +6340,9 @@
         <v>-221.9179918199995</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>385000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6439,11 +6377,9 @@
         <v>-233.9496918199995</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>385300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6478,11 +6414,9 @@
         <v>-269.2813918199996</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>385100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6517,11 +6451,9 @@
         <v>-6.615791819999572</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>384800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6556,11 +6488,9 @@
         <v>-25.09979181999957</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>386400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6595,11 +6525,9 @@
         <v>-25.09979181999957</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>384600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6634,11 +6562,9 @@
         <v>-22.89859181999957</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>384600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6673,11 +6599,9 @@
         <v>-22.89859181999957</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>385000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6712,11 +6636,9 @@
         <v>-21.19929181999957</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>385000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6751,11 +6673,9 @@
         <v>-11.46069181999957</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>385500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6790,11 +6710,9 @@
         <v>-51.04389181999957</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>387600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6829,11 +6747,9 @@
         <v>13.59610818000043</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>387200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6868,11 +6784,9 @@
         <v>115.8948081800004</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>388600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6907,11 +6821,9 @@
         <v>142.3827081800004</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>388800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7464,18 +7376,16 @@
         <v>531.7943081800004</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -7505,11 +7415,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7538,15 +7444,11 @@
         <v>905.7085081800003</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7575,15 +7477,11 @@
         <v>889.3208081800003</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7612,15 +7510,11 @@
         <v>896.2625081800003</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7649,15 +7543,11 @@
         <v>1121.73580818</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7686,15 +7576,11 @@
         <v>1115.41680818</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7723,15 +7609,11 @@
         <v>1115.41680818</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7760,15 +7642,11 @@
         <v>1100.96490818</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7797,15 +7675,11 @@
         <v>1102.64730818</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7834,15 +7708,11 @@
         <v>1107.54630818</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7871,15 +7741,11 @@
         <v>1107.29270818</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7908,15 +7774,11 @@
         <v>1199.60510818</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7945,15 +7807,11 @@
         <v>1148.26690818</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7982,15 +7840,11 @@
         <v>1181.20175938</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8019,15 +7873,11 @@
         <v>1214.09895938</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8056,15 +7906,11 @@
         <v>1214.09895938</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8093,15 +7939,11 @@
         <v>1200.41315938</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8130,15 +7972,11 @@
         <v>1189.86395938</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8167,15 +8005,11 @@
         <v>1162.94775938</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8204,15 +8038,11 @@
         <v>1162.94775938</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8241,15 +8071,11 @@
         <v>1162.94775938</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8278,15 +8104,11 @@
         <v>1178.94775938</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8315,15 +8137,11 @@
         <v>1193.44725938</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8352,15 +8170,11 @@
         <v>1194.97525938</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8389,15 +8203,11 @@
         <v>1196.40855938</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8426,15 +8236,11 @@
         <v>1196.40855938</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8463,15 +8269,11 @@
         <v>1121.44525938</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8500,15 +8302,11 @@
         <v>1191.53885938</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8537,15 +8335,11 @@
         <v>1316.62725938</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8574,15 +8368,11 @@
         <v>1293.77838973</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8611,15 +8401,11 @@
         <v>1260.17418973</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8648,15 +8434,11 @@
         <v>1175.20388973</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8685,15 +8467,11 @@
         <v>1085.56598973</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8722,15 +8500,11 @@
         <v>1107.98238973</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8537,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8570,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +8603,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8874,11 +8636,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +8669,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +8702,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +8735,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8768,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9059,11 +8801,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9096,11 +8834,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +8867,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +8900,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9207,11 +8933,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9244,11 +8966,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9281,11 +8999,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +9032,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +9065,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +9098,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +9131,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +9164,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +9197,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9230,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +9263,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9296,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +9329,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9688,11 +9362,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +9395,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +9428,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9799,11 +9461,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9836,11 +9494,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9873,11 +9527,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9910,11 +9560,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9947,11 +9593,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9984,11 +9626,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +9659,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +9692,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10095,11 +9725,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +9758,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +9791,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +9824,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +9857,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +9890,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10317,11 +9923,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +9956,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +9989,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +10022,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10465,11 +10055,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +10088,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10539,11 +10121,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10576,11 +10154,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10613,11 +10187,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10650,11 +10220,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +10253,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +10286,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10761,11 +10319,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10798,11 +10352,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +10385,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +10418,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +10451,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10946,11 +10484,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10983,11 +10517,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +10550,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11057,11 +10583,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11094,11 +10616,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11131,11 +10649,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +10682,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11205,11 +10715,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +10748,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +10781,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11316,11 +10814,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11353,11 +10847,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11390,11 +10880,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +10913,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +10946,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11501,11 +10979,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +11012,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11575,11 +11045,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +11078,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +11111,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11686,11 +11144,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11723,11 +11177,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11760,11 +11210,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11797,11 +11243,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +11276,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +11309,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11908,11 +11342,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +11375,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11982,11 +11408,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +11441,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12056,11 +11474,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12093,11 +11507,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +11540,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12167,11 +11573,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12204,11 +11606,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12241,11 +11639,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12278,11 +11672,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +11705,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12352,11 +11738,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12389,11 +11771,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12426,11 +11804,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +11837,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +11870,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12537,11 +11903,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +11936,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +11969,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +12002,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +12035,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +12068,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +12101,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +12134,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +12167,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12870,11 +12200,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +12233,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +12266,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +12299,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +12332,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +12365,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +12398,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +12431,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +12464,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13203,11 +12497,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +12530,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13277,11 +12563,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +12596,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13351,11 +12629,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13388,11 +12662,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +12695,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13462,11 +12728,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13499,11 +12761,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +12794,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13573,11 +12827,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13610,11 +12860,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13647,11 +12893,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +12926,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +12959,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +12992,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +13025,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +13058,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +13091,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +13124,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13157,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +13190,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +13223,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +13256,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +13289,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14128,11 +13322,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +13355,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +13388,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +13421,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +13454,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +13487,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +13520,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +13553,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +13586,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +13619,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +13652,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +13685,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +13718,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +13751,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +13784,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +13817,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +13850,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +13883,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +13916,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +13949,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +13982,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14015,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +14048,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +14081,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +14114,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +14147,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +14180,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +14213,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +14246,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +14279,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +14312,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +14345,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15312,11 +14378,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15349,11 +14411,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15386,11 +14444,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +14477,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15460,11 +14510,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15497,11 +14543,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +14576,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +14609,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +14642,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +14675,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +14708,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15719,11 +14741,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +14774,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +14807,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15830,11 +14840,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +14873,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +14906,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15941,11 +14939,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +14972,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +15005,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +15038,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +15071,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +15104,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +15137,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +15170,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +15203,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +15236,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +15269,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +15302,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +15335,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16422,11 +15368,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +15401,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16496,11 +15434,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16533,11 +15467,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16570,11 +15500,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16607,11 +15533,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16644,11 +15566,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16681,11 +15599,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16718,11 +15632,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16755,11 +15665,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16792,11 +15698,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +15731,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16866,11 +15764,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16903,11 +15797,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16940,11 +15830,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16977,11 +15863,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +15896,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +15929,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17088,11 +15962,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17125,11 +15995,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17162,11 +16028,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17199,11 +16061,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17236,11 +16094,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17273,11 +16127,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +16160,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +16193,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17384,11 +16226,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17421,11 +16259,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17458,11 +16292,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17495,11 +16325,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17532,11 +16358,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17569,11 +16391,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17606,11 +16424,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17643,11 +16457,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17680,11 +16490,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17717,11 +16523,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17754,11 +16556,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17791,11 +16589,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17828,11 +16622,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17865,11 +16655,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +16688,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17939,11 +16721,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +16754,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18013,11 +16787,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18050,11 +16820,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18087,11 +16853,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18124,11 +16886,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18161,11 +16919,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18198,11 +16952,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18235,11 +16985,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18272,11 +17018,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18309,11 +17051,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18346,11 +17084,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18383,11 +17117,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +17150,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18457,11 +17183,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18494,11 +17216,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18531,11 +17249,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +17282,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18605,11 +17315,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18642,11 +17348,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18679,11 +17381,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18716,11 +17414,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18753,11 +17447,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18790,11 +17480,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18827,11 +17513,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18864,11 +17546,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +17579,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18938,11 +17612,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18975,11 +17645,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19012,11 +17678,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19049,11 +17711,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19086,11 +17744,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19123,11 +17777,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19160,11 +17810,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +17843,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19234,11 +17876,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19271,11 +17909,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19308,11 +17942,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19345,11 +17975,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19382,11 +18008,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19419,11 +18041,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19456,11 +18074,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +18107,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19530,11 +18140,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19567,11 +18173,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19604,11 +18206,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19641,11 +18239,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19678,11 +18272,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19715,11 +18305,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19752,11 +18338,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +18371,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19826,11 +18404,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19863,11 +18437,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19900,11 +18470,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19937,11 +18503,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19974,11 +18536,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20011,11 +18569,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20048,11 +18602,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20085,11 +18635,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20122,11 +18668,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20159,11 +18701,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20196,11 +18734,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20233,11 +18767,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20270,11 +18800,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20307,11 +18833,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20344,11 +18866,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20381,11 +18899,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20418,11 +18932,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20455,11 +18965,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20492,11 +18998,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20529,11 +19031,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20566,11 +19064,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20603,11 +19097,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20640,11 +19130,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20677,11 +19163,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20714,11 +19196,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20751,11 +19229,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20788,11 +19262,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20825,11 +19295,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20862,11 +19328,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20899,11 +19361,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20936,11 +19394,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20973,11 +19427,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +19460,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21047,11 +19493,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21084,11 +19526,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21121,11 +19559,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21158,11 +19592,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21195,11 +19625,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21232,11 +19658,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21269,11 +19691,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21306,11 +19724,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21343,11 +19757,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21380,11 +19790,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21417,11 +19823,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21454,11 +19856,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21491,11 +19889,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21528,11 +19922,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21565,11 +19955,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21602,11 +19988,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21639,11 +20021,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21676,11 +20054,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21713,11 +20087,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21750,11 +20120,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21787,11 +20153,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21824,11 +20186,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21861,11 +20219,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21898,11 +20252,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21935,11 +20285,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21972,11 +20318,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22009,11 +20351,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22046,11 +20384,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22083,11 +20417,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22120,11 +20450,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22157,11 +20483,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22194,11 +20516,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +20549,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22268,11 +20582,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22305,11 +20615,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22342,11 +20648,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22379,11 +20681,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22416,11 +20714,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22453,11 +20747,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22490,11 +20780,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22527,11 +20813,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22564,11 +20846,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22601,11 +20879,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22638,11 +20912,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22675,11 +20945,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22712,11 +20978,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22749,11 +21011,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22786,11 +21044,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22823,11 +21077,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22860,11 +21110,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22897,11 +21143,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22934,11 +21176,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22971,11 +21209,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23008,11 +21242,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23045,11 +21275,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23082,11 +21308,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23119,11 +21341,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23156,11 +21374,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23193,11 +21407,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23230,11 +21440,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23267,11 +21473,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23304,11 +21506,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23341,11 +21539,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23378,11 +21572,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23415,11 +21605,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +21638,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23489,11 +21671,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23526,11 +21704,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23563,11 +21737,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23600,11 +21770,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23637,11 +21803,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23674,11 +21836,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23711,11 +21869,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23748,11 +21902,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23785,11 +21935,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23822,11 +21968,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23859,11 +22001,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23896,11 +22034,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23933,11 +22067,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23970,11 +22100,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24007,11 +22133,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24044,11 +22166,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24081,11 +22199,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24118,11 +22232,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24155,11 +22265,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24192,11 +22298,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24229,11 +22331,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24266,11 +22364,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24303,11 +22397,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24340,11 +22430,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24377,11 +22463,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24414,11 +22496,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24451,11 +22529,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24488,11 +22562,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24525,11 +22595,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24562,11 +22628,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24599,11 +22661,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24636,11 +22694,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +22727,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24710,11 +22760,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24747,11 +22793,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24784,11 +22826,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24821,11 +22859,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24858,11 +22892,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24895,11 +22925,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24932,11 +22958,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24969,11 +22991,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25006,11 +23024,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25043,11 +23057,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25080,11 +23090,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25117,11 +23123,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25154,11 +23156,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25191,11 +23189,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25228,11 +23222,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25265,11 +23255,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25302,11 +23288,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25339,11 +23321,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25376,11 +23354,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25413,11 +23387,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25450,11 +23420,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25487,11 +23453,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25524,11 +23486,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25561,11 +23519,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25598,11 +23552,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25635,11 +23585,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25672,11 +23618,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25709,11 +23651,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25746,11 +23684,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25783,11 +23717,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25820,11 +23750,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25857,11 +23783,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +23816,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25931,11 +23849,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25968,11 +23882,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26005,11 +23915,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26042,11 +23948,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26079,11 +23981,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26116,11 +24014,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26153,11 +24047,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26190,11 +24080,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26227,11 +24113,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26264,11 +24146,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26301,11 +24179,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26338,11 +24212,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26375,11 +24245,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26412,11 +24278,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26445,16 +24307,14 @@
         <v>3341.492481150002</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
       <c r="M704" t="inlineStr"/>
     </row>
     <row r="705">
@@ -26546,7 +24406,7 @@
         <v>3112.448581150002</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26579,7 +24439,7 @@
         <v>3133.123181150002</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26612,7 +24472,7 @@
         <v>3043.545981150001</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26645,7 +24505,7 @@
         <v>3037.992381150001</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26678,7 +24538,7 @@
         <v>3037.992381150001</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26711,7 +24571,7 @@
         <v>3035.444381150001</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26744,7 +24604,7 @@
         <v>3048.107381150001</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26777,7 +24637,7 @@
         <v>3049.132381150001</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26810,7 +24670,7 @@
         <v>3106.644381150002</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26843,7 +24703,7 @@
         <v>3077.412881150002</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26876,7 +24736,7 @@
         <v>3193.353781150002</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26909,7 +24769,7 @@
         <v>3193.353781150002</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26942,7 +24802,7 @@
         <v>3112.528581150002</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26975,7 +24835,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27008,7 +24868,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27536,7 +25396,7 @@
         <v>3060.909103420001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27569,7 +25429,7 @@
         <v>3090.060703420002</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27602,7 +25462,7 @@
         <v>3096.339352100002</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27635,7 +25495,7 @@
         <v>3054.436152100001</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27668,7 +25528,7 @@
         <v>3002.594791540002</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27701,7 +25561,7 @@
         <v>3127.217591540002</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27734,7 +25594,7 @@
         <v>3127.200791540002</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27767,7 +25627,7 @@
         <v>3127.057591540002</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27800,7 +25660,7 @@
         <v>3164.104191540002</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27833,7 +25693,7 @@
         <v>3224.355191540002</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27866,7 +25726,7 @@
         <v>3218.776891540002</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27899,7 +25759,7 @@
         <v>3191.708391540002</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27932,7 +25792,7 @@
         <v>3191.708391540002</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27965,7 +25825,7 @@
         <v>3197.793291540002</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27998,7 +25858,7 @@
         <v>3224.929777910002</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28031,7 +25891,7 @@
         <v>3224.929777910002</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28097,7 +25957,7 @@
         <v>3168.633577910002</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28559,7 +26419,7 @@
         <v>2939.049891740002</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28592,7 +26452,7 @@
         <v>2939.049891740002</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28625,7 +26485,7 @@
         <v>2941.120591740003</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28658,7 +26518,7 @@
         <v>2938.993391740003</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28724,7 +26584,7 @@
         <v>2917.414991740003</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28790,7 +26650,7 @@
         <v>2890.062465110002</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -38008,6 +35868,6 @@
       <c r="M1054" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>